--- a/FinalOutputFolder/20250521_Order_Development_Output_step_metrics_summary.xlsx
+++ b/FinalOutputFolder/20250521_Order_Development_Output_step_metrics_summary.xlsx
@@ -1,109 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mckinsey-my.sharepoint.com/personal/tony_yang_mckinsey_com/Documents/Documents/Python/FinalOutputFolder/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_2B59D2BFD3D0DEB897CDFE92563088B35299F4E7" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADB4B046-5743-4B9F-AA2B-4740DC59C29E}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7845" yWindow="-14580" windowWidth="17250" windowHeight="9945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Step Metrics Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Step Entry-Exit Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Step</t>
-  </si>
-  <si>
-    <t>Avg Days in Step</t>
-  </si>
-  <si>
-    <t>Avg Orders per Day</t>
-  </si>
-  <si>
-    <t>Avg MRC per Day</t>
-  </si>
-  <si>
-    <t>1. Order entry and validation</t>
-  </si>
-  <si>
-    <t>1.9 PMO delivery planning</t>
-  </si>
-  <si>
-    <t>2. Delivery planning</t>
-  </si>
-  <si>
-    <t>3. Installation preparation and digging order</t>
-  </si>
-  <si>
-    <t>4. Final design</t>
-  </si>
-  <si>
-    <t>5. Configuration</t>
-  </si>
-  <si>
-    <t>6. Cabling splicing and installation</t>
-  </si>
-  <si>
-    <t>7. Service activation</t>
-  </si>
-  <si>
-    <t>8. Ready for service</t>
-  </si>
-  <si>
-    <t>9. Vendor invoice</t>
-  </si>
-  <si>
-    <t>Delivered</t>
-  </si>
-  <si>
-    <t>Cancelled/terminated/On hold</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,43 +47,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,201 +421,478 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="24.88671875" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Step</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Days in Step</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Avg Orders per Day</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Avg MRC per Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1. Order entry and validation</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.9 PMO delivery planning</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="C3" t="n">
+        <v>364.67</v>
+      </c>
+      <c r="D3" t="n">
+        <v>335657.74</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2. Delivery planning</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="C4" t="n">
+        <v>404.33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>461061.91</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3. Installation preparation and digging order</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="C5" t="n">
+        <v>293</v>
+      </c>
+      <c r="D5" t="n">
+        <v>279384.01</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4. Final design</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="C6" t="n">
+        <v>60.33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60773.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5. Configuration</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="C7" t="n">
+        <v>291.33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>262249.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6. Cabling splicing and installation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="C8" t="n">
+        <v>329.67</v>
+      </c>
+      <c r="D8" t="n">
+        <v>380387.36</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7. Service activation</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="C9" t="n">
+        <v>74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>67413.88</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8. Ready for service</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="C10" t="n">
+        <v>35.67</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46896.19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9. Vendor invoice</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="C12" t="n">
+        <v>125.33</v>
+      </c>
+      <c r="D12" t="n">
+        <v>58281.76</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cancelled/terminated/On hold</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>42.67</v>
+      </c>
+      <c r="D13" t="n">
+        <v>45565</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Data as of 20250519 - 20250521</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Step</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Entered</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stayed</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Exited</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1. Order entry and validation</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1.9 PMO delivery planning</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>366</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2. Delivery planning</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>4</v>
+      </c>
+      <c r="C4" t="n">
+        <v>410</v>
+      </c>
+      <c r="D4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3. Installation preparation and digging order</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>291</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4. Final design</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5. Configuration</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="n">
+        <v>297</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6. Cabling splicing and installation</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>340</v>
+      </c>
+      <c r="D8" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7. Service activation</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C9" t="n">
+        <v>75</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8. Ready for service</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>32</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9. Vendor invoice</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Delivered</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>17</v>
+      </c>
+      <c r="C12" t="n">
+        <v>173</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Cancelled/terminated/On hold</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>2.99</v>
-      </c>
-      <c r="C3">
-        <v>364.67</v>
-      </c>
-      <c r="D3">
-        <v>335657.74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>2.87</v>
-      </c>
-      <c r="C4">
-        <v>404.33</v>
-      </c>
-      <c r="D4">
-        <v>461061.91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>2.83</v>
-      </c>
-      <c r="C5">
-        <v>293</v>
-      </c>
-      <c r="D5">
-        <v>279384.01</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>2.5099999999999998</v>
-      </c>
-      <c r="C6">
-        <v>60.33</v>
-      </c>
-      <c r="D6">
-        <v>60773.39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>2.85</v>
-      </c>
-      <c r="C7">
-        <v>291.33</v>
-      </c>
-      <c r="D7">
-        <v>262249.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8">
-        <v>2.68</v>
-      </c>
-      <c r="C8">
-        <v>329.67</v>
-      </c>
-      <c r="D8">
-        <v>380387.36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
-        <v>2.88</v>
-      </c>
-      <c r="C9">
-        <v>74</v>
-      </c>
-      <c r="D9">
-        <v>67413.88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10">
-        <v>2.61</v>
-      </c>
-      <c r="C10">
-        <v>35.67</v>
-      </c>
-      <c r="D10">
-        <v>46896.19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>1.98</v>
-      </c>
-      <c r="C12">
-        <v>125.33</v>
-      </c>
-      <c r="D12">
-        <v>58281.760000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>2.1</v>
-      </c>
-      <c r="C13">
-        <v>42.67</v>
-      </c>
-      <c r="D13">
-        <v>45565</v>
+      <c r="C13" t="n">
+        <v>58</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Interval between T1 and T2: 20250519 - 20250521</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/FinalOutputFolder/20250521_Order_Development_Output_step_metrics_summary.xlsx
+++ b/FinalOutputFolder/20250521_Order_Development_Output_step_metrics_summary.xlsx
@@ -1,38 +1,125 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mckinsey-my.sharepoint.com/personal/tony_yang_mckinsey_com/Documents/Documents/Python/FinalOutputFolder/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="7" documentId="11_C13F2DEA8BAC5D15612E33152C358AD3021B03CA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31CED5AB-FC98-4446-8D93-6AB7F2986418}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-4785" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Step Metrics Summary" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Step Entry-Exit Summary" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Step Metrics Summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Step Entry-Exit Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Avg Days in Step</t>
+  </si>
+  <si>
+    <t>Avg Orders per Day</t>
+  </si>
+  <si>
+    <t>Avg MRC per Day</t>
+  </si>
+  <si>
+    <t>1. Order entry and validation</t>
+  </si>
+  <si>
+    <t>1.9 PMO delivery planning</t>
+  </si>
+  <si>
+    <t>2. Delivery planning</t>
+  </si>
+  <si>
+    <t>3. Installation preparation and digging order</t>
+  </si>
+  <si>
+    <t>4. Final design</t>
+  </si>
+  <si>
+    <t>5. Configuration</t>
+  </si>
+  <si>
+    <t>6. Cabling splicing and installation</t>
+  </si>
+  <si>
+    <t>7. Service activation</t>
+  </si>
+  <si>
+    <t>8. Ready for service</t>
+  </si>
+  <si>
+    <t>9. Vendor invoice</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>Cancelled/terminated/On hold</t>
+  </si>
+  <si>
+    <t>Data as of 20250519 - 20250521</t>
+  </si>
+  <si>
+    <t>Entered</t>
+  </si>
+  <si>
+    <t>Stayed</t>
+  </si>
+  <si>
+    <t>Exited</t>
+  </si>
+  <si>
+    <t>Interval between T1 and T2: 20250519 - 20250521</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -47,93 +134,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -421,238 +458,206 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Step</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Avg Days in Step</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Avg Orders per Day</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Avg MRC per Day</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1. Order entry and validation</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.9 PMO delivery planning</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
         <v>2.99</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>364.67</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>335657.74</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2. Delivery planning</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>2.87</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>404.33</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>461061.91</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3. Installation preparation and digging order</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>2.83</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>293</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>279384.01</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4. Final design</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="C6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="C6">
         <v>60.33</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>60773.39</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5. Configuration</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>2.85</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>291.33</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>262249.75</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6. Cabling splicing and installation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>2.68</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>329.67</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>380387.36</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7. Service activation</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>2.88</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>74</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>67413.88</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8. Ready for service</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>2.61</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>35.67</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>46896.19</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9. Vendor invoice</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>1.98</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>125.33</v>
       </c>
-      <c r="D12" t="n">
-        <v>58281.76</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cancelled/terminated/On hold</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="D12">
+        <v>58281.760000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>2.1</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>42.67</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>45565</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Data as of 20250519 - 20250521</t>
-        </is>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -661,238 +666,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Step</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Entered</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stayed</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Exited</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1. Order entry and validation</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>1.9 PMO delivery planning</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>366</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2. Delivery planning</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
         <v>4</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>410</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>8</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3. Installation preparation and digging order</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
         <v>3</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>291</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4. Final design</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
         <v>11</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>54</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>7</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5. Configuration</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>297</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6. Cabling splicing and installation</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>340</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>22</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>7. Service activation</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>75</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>1</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>8. Ready for service</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
         <v>7</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>32</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>9. Vendor invoice</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Delivered</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
         <v>17</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>173</v>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Cancelled/terminated/On hold</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+      <c r="D12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>58</v>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Interval between T1 and T2: 20250519 - 20250521</t>
-        </is>
+      <c r="D13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
